--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3582.762966126849</v>
+        <v>3738.809636994969</v>
       </c>
       <c r="AB2" t="n">
-        <v>4902.094350601761</v>
+        <v>5115.604289976785</v>
       </c>
       <c r="AC2" t="n">
-        <v>4434.245345912776</v>
+        <v>4627.378196336922</v>
       </c>
       <c r="AD2" t="n">
-        <v>3582762.966126849</v>
+        <v>3738809.636994969</v>
       </c>
       <c r="AE2" t="n">
-        <v>4902094.350601761</v>
+        <v>5115604.289976785</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.929627014048207e-07</v>
+        <v>1.171487828901585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.23828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4434245.345912776</v>
+        <v>4627378.196336922</v>
       </c>
     </row>
     <row r="3">
@@ -3133,28 +3133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1684.724399328811</v>
+        <v>1788.783900520048</v>
       </c>
       <c r="AB3" t="n">
-        <v>2305.114247956597</v>
+        <v>2447.493048267638</v>
       </c>
       <c r="AC3" t="n">
-        <v>2085.117379379785</v>
+        <v>2213.907746819042</v>
       </c>
       <c r="AD3" t="n">
-        <v>1684724.399328811</v>
+        <v>1788783.900520048</v>
       </c>
       <c r="AE3" t="n">
-        <v>2305114.247956597</v>
+        <v>2447493.048267638</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.092942789362009e-06</v>
+        <v>1.847674013085686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.53949652777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2085117.379379785</v>
+        <v>2213907.746819042</v>
       </c>
     </row>
     <row r="4">
@@ -3239,28 +3239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1348.170791988194</v>
+        <v>1431.40141427882</v>
       </c>
       <c r="AB4" t="n">
-        <v>1844.626754695907</v>
+        <v>1958.506563989848</v>
       </c>
       <c r="AC4" t="n">
-        <v>1668.578166177639</v>
+        <v>1771.589446303883</v>
       </c>
       <c r="AD4" t="n">
-        <v>1348170.791988194</v>
+        <v>1431401.41427882</v>
       </c>
       <c r="AE4" t="n">
-        <v>1844626.754695907</v>
+        <v>1958506.563989848</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.248397235311757e-06</v>
+        <v>2.110477467022783e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.23046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1668578.166177639</v>
+        <v>1771589.446303883</v>
       </c>
     </row>
     <row r="5">
@@ -3345,28 +3345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1192.577195538072</v>
+        <v>1275.722476974127</v>
       </c>
       <c r="AB5" t="n">
-        <v>1631.736731727834</v>
+        <v>1745.499773899578</v>
       </c>
       <c r="AC5" t="n">
-        <v>1476.006068208615</v>
+        <v>1578.911725302921</v>
       </c>
       <c r="AD5" t="n">
-        <v>1192577.195538072</v>
+        <v>1275722.476974127</v>
       </c>
       <c r="AE5" t="n">
-        <v>1631736.731727834</v>
+        <v>1745499.773899578</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.332239933487657e-06</v>
+        <v>2.252217708245314e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1476006.068208615</v>
+        <v>1578911.725302921</v>
       </c>
     </row>
     <row r="6">
@@ -3451,28 +3451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1092.953285863902</v>
+        <v>1176.183818645977</v>
       </c>
       <c r="AB6" t="n">
-        <v>1495.426903414929</v>
+        <v>1609.306590239323</v>
       </c>
       <c r="AC6" t="n">
-        <v>1352.705458597849</v>
+        <v>1455.716627942866</v>
       </c>
       <c r="AD6" t="n">
-        <v>1092953.285863902</v>
+        <v>1176183.818645977</v>
       </c>
       <c r="AE6" t="n">
-        <v>1495426.90341493</v>
+        <v>1609306.590239323</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.384058082137572e-06</v>
+        <v>2.33981885955768e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.63975694444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1352705.458597849</v>
+        <v>1455716.627942866</v>
       </c>
     </row>
     <row r="7">
@@ -3557,28 +3557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1025.041297661259</v>
+        <v>1097.857435747304</v>
       </c>
       <c r="AB7" t="n">
-        <v>1402.506725090605</v>
+        <v>1502.136977641223</v>
       </c>
       <c r="AC7" t="n">
-        <v>1268.653451678509</v>
+        <v>1358.775132757634</v>
       </c>
       <c r="AD7" t="n">
-        <v>1025041.297661259</v>
+        <v>1097857.435747304</v>
       </c>
       <c r="AE7" t="n">
-        <v>1402506.725090605</v>
+        <v>1502136.977641223</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.419817273007694e-06</v>
+        <v>2.400271545958826e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1268653.451678509</v>
+        <v>1358775.132757634</v>
       </c>
     </row>
     <row r="8">
@@ -3663,28 +3663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>978.4945626752318</v>
+        <v>1051.310700761277</v>
       </c>
       <c r="AB8" t="n">
-        <v>1338.819428785704</v>
+        <v>1438.449681336322</v>
       </c>
       <c r="AC8" t="n">
-        <v>1211.044381547265</v>
+        <v>1301.16606262639</v>
       </c>
       <c r="AD8" t="n">
-        <v>978494.5626752318</v>
+        <v>1051310.700761277</v>
       </c>
       <c r="AE8" t="n">
-        <v>1338819.428785704</v>
+        <v>1438449.681336322</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.439517506098023e-06</v>
+        <v>2.433575767448753e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.07552083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1211044.381547265</v>
+        <v>1301166.06262639</v>
       </c>
     </row>
     <row r="9">
@@ -3769,28 +3769,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>975.8463866828552</v>
+        <v>1048.6625247689</v>
       </c>
       <c r="AB9" t="n">
-        <v>1335.196077563655</v>
+        <v>1434.826330114273</v>
       </c>
       <c r="AC9" t="n">
-        <v>1207.766837880443</v>
+        <v>1297.888518959568</v>
       </c>
       <c r="AD9" t="n">
-        <v>975846.3866828552</v>
+        <v>1048662.5247689</v>
       </c>
       <c r="AE9" t="n">
-        <v>1335196.077563655</v>
+        <v>1434826.330114273</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.44241185313973e-06</v>
+        <v>2.438468804729263e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.04730902777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1207766.837880443</v>
+        <v>1297888.518959568</v>
       </c>
     </row>
     <row r="10">
@@ -3875,28 +3875,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>979.8268470237595</v>
+        <v>1052.642985109805</v>
       </c>
       <c r="AB10" t="n">
-        <v>1340.642319007597</v>
+        <v>1440.272571558215</v>
       </c>
       <c r="AC10" t="n">
-        <v>1212.693297684823</v>
+        <v>1302.814978763948</v>
       </c>
       <c r="AD10" t="n">
-        <v>979826.8470237595</v>
+        <v>1052642.985109805</v>
       </c>
       <c r="AE10" t="n">
-        <v>1340642.319007597</v>
+        <v>1440272.571558215</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.44241185313973e-06</v>
+        <v>2.438468804729263e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.04730902777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1212693.297684823</v>
+        <v>1302814.978763948</v>
       </c>
     </row>
   </sheetData>
@@ -4172,28 +4172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2465.053159073569</v>
+        <v>2596.145200189179</v>
       </c>
       <c r="AB2" t="n">
-        <v>3372.794482714805</v>
+        <v>3552.160396741877</v>
       </c>
       <c r="AC2" t="n">
-        <v>3050.899711031163</v>
+        <v>3213.147193965127</v>
       </c>
       <c r="AD2" t="n">
-        <v>2465053.159073569</v>
+        <v>2596145.200189179</v>
       </c>
       <c r="AE2" t="n">
-        <v>3372794.482714805</v>
+        <v>3552160.396741877</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.520804171760404e-07</v>
+        <v>1.475625204117911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.59852430555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3050899.711031164</v>
+        <v>3213147.193965127</v>
       </c>
     </row>
     <row r="3">
@@ -4278,28 +4278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1339.115436977701</v>
+        <v>1419.840069237132</v>
       </c>
       <c r="AB3" t="n">
-        <v>1832.236818476481</v>
+        <v>1942.687821653266</v>
       </c>
       <c r="AC3" t="n">
-        <v>1657.370708081611</v>
+        <v>1757.28042253416</v>
       </c>
       <c r="AD3" t="n">
-        <v>1339115.436977701</v>
+        <v>1419840.069237132</v>
       </c>
       <c r="AE3" t="n">
-        <v>1832236.818476481</v>
+        <v>1942687.821653266</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.224805233530874e-06</v>
+        <v>2.121106689346999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.11371527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1657370.708081611</v>
+        <v>1757280.42253416</v>
       </c>
     </row>
     <row r="4">
@@ -4384,28 +4384,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1092.833951996505</v>
+        <v>1173.387902546794</v>
       </c>
       <c r="AB4" t="n">
-        <v>1495.263625552918</v>
+        <v>1605.481094485308</v>
       </c>
       <c r="AC4" t="n">
-        <v>1352.557763745827</v>
+        <v>1452.256232134498</v>
       </c>
       <c r="AD4" t="n">
-        <v>1092833.951996505</v>
+        <v>1173387.902546794</v>
       </c>
       <c r="AE4" t="n">
-        <v>1495263.625552919</v>
+        <v>1605481.094485308</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.365337653275959e-06</v>
+        <v>2.364479470121377e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.3515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1352557.763745827</v>
+        <v>1452256.232134498</v>
       </c>
     </row>
     <row r="5">
@@ -4490,28 +4490,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>963.0464799336092</v>
+        <v>1043.685681829919</v>
       </c>
       <c r="AB5" t="n">
-        <v>1317.682680457305</v>
+        <v>1428.016794042344</v>
       </c>
       <c r="AC5" t="n">
-        <v>1191.924894813716</v>
+        <v>1291.7288754531</v>
       </c>
       <c r="AD5" t="n">
-        <v>963046.4799336093</v>
+        <v>1043685.681829919</v>
       </c>
       <c r="AE5" t="n">
-        <v>1317682.680457305</v>
+        <v>1428016.794042344</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.441447307405943e-06</v>
+        <v>2.496285484726332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.54210069444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1191924.894813716</v>
+        <v>1291728.8754531</v>
       </c>
     </row>
     <row r="6">
@@ -4596,28 +4596,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>900.857774350417</v>
+        <v>971.4064979114173</v>
       </c>
       <c r="AB6" t="n">
-        <v>1232.593349906323</v>
+        <v>1329.121225872505</v>
       </c>
       <c r="AC6" t="n">
-        <v>1114.956370546894</v>
+        <v>1202.271761508589</v>
       </c>
       <c r="AD6" t="n">
-        <v>900857.774350417</v>
+        <v>971406.4979114173</v>
       </c>
       <c r="AE6" t="n">
-        <v>1232593.349906323</v>
+        <v>1329121.225872505</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.476604558806088e-06</v>
+        <v>2.557170496548925e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.19487847222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1114956.370546894</v>
+        <v>1202271.761508589</v>
       </c>
     </row>
     <row r="7">
@@ -4702,28 +4702,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>895.1556881315694</v>
+        <v>965.7044116925698</v>
       </c>
       <c r="AB7" t="n">
-        <v>1224.791503983405</v>
+        <v>1321.319379949588</v>
       </c>
       <c r="AC7" t="n">
-        <v>1107.899121848901</v>
+        <v>1195.214512810596</v>
       </c>
       <c r="AD7" t="n">
-        <v>895155.6881315694</v>
+        <v>965704.4116925698</v>
       </c>
       <c r="AE7" t="n">
-        <v>1224791.503983405</v>
+        <v>1321319.379949588</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.480854336447864e-06</v>
+        <v>2.564530223252755e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.15364583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1107899.121848901</v>
+        <v>1195214.512810596</v>
       </c>
     </row>
   </sheetData>
@@ -4999,28 +4999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>938.3240731023438</v>
+        <v>1011.247087512618</v>
       </c>
       <c r="AB2" t="n">
-        <v>1283.856392755154</v>
+        <v>1383.632878207633</v>
       </c>
       <c r="AC2" t="n">
-        <v>1161.326940534366</v>
+        <v>1251.580898252437</v>
       </c>
       <c r="AD2" t="n">
-        <v>938324.0731023438</v>
+        <v>1011247.087512618</v>
       </c>
       <c r="AE2" t="n">
-        <v>1283856.392755154</v>
+        <v>1383632.878207633</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.371015243640542e-06</v>
+        <v>2.594255869353678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.05946180555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1161326.940534366</v>
+        <v>1251580.898252437</v>
       </c>
     </row>
     <row r="3">
@@ -5105,28 +5105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>724.4640360247969</v>
+        <v>788.2716848223554</v>
       </c>
       <c r="AB3" t="n">
-        <v>991.2436551866959</v>
+        <v>1078.548095266308</v>
       </c>
       <c r="AC3" t="n">
-        <v>896.6407519548849</v>
+        <v>975.6129788058502</v>
       </c>
       <c r="AD3" t="n">
-        <v>724464.0360247969</v>
+        <v>788271.6848223554</v>
       </c>
       <c r="AE3" t="n">
-        <v>991243.655186696</v>
+        <v>1078548.095266308</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.552509597094726e-06</v>
+        <v>2.937682241808012e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.06510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>896640.7519548849</v>
+        <v>975612.9788058501</v>
       </c>
     </row>
     <row r="4">
@@ -5211,28 +5211,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>729.717772598109</v>
+        <v>793.5254213956676</v>
       </c>
       <c r="AB4" t="n">
-        <v>998.4320493448012</v>
+        <v>1085.736489424414</v>
       </c>
       <c r="AC4" t="n">
-        <v>903.1430958635149</v>
+        <v>982.1153227144803</v>
       </c>
       <c r="AD4" t="n">
-        <v>729717.7725981091</v>
+        <v>793525.4213956676</v>
       </c>
       <c r="AE4" t="n">
-        <v>998432.0493448011</v>
+        <v>1085736.489424414</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.552401821350395e-06</v>
+        <v>2.937478306907505e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.06510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>903143.0958635149</v>
+        <v>982115.3227144802</v>
       </c>
     </row>
   </sheetData>
@@ -5508,28 +5508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1359.796716180806</v>
+        <v>1454.592431769938</v>
       </c>
       <c r="AB2" t="n">
-        <v>1860.533857075815</v>
+        <v>1990.23753723668</v>
       </c>
       <c r="AC2" t="n">
-        <v>1682.967117032167</v>
+        <v>1800.292059998739</v>
       </c>
       <c r="AD2" t="n">
-        <v>1359796.716180806</v>
+        <v>1454592.431769938</v>
       </c>
       <c r="AE2" t="n">
-        <v>1860533.857075815</v>
+        <v>1990237.53723668</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.159216650044177e-06</v>
+        <v>2.111840983759459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.30121527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1682967.117032167</v>
+        <v>1800292.059998739</v>
       </c>
     </row>
     <row r="3">
@@ -5614,28 +5614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>863.136758544496</v>
+        <v>938.9392125756833</v>
       </c>
       <c r="AB3" t="n">
-        <v>1180.981791946893</v>
+        <v>1284.698053720615</v>
       </c>
       <c r="AC3" t="n">
-        <v>1068.270547241836</v>
+        <v>1162.088274558562</v>
       </c>
       <c r="AD3" t="n">
-        <v>863136.758544496</v>
+        <v>938939.2125756834</v>
       </c>
       <c r="AE3" t="n">
-        <v>1180981.791946893</v>
+        <v>1284698.053720616</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.473482624369059e-06</v>
+        <v>2.684365338335535e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.18446180555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1068270.547241836</v>
+        <v>1162088.274558562</v>
       </c>
     </row>
     <row r="4">
@@ -5720,28 +5720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>776.0783684368356</v>
+        <v>851.9660738140436</v>
       </c>
       <c r="AB4" t="n">
-        <v>1061.864661856486</v>
+        <v>1165.697568282859</v>
       </c>
       <c r="AC4" t="n">
-        <v>960.5217888653158</v>
+        <v>1054.445028432754</v>
       </c>
       <c r="AD4" t="n">
-        <v>776078.3684368356</v>
+        <v>851966.0738140437</v>
       </c>
       <c r="AE4" t="n">
-        <v>1061864.661856486</v>
+        <v>1165697.568282859</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.537098800930231e-06</v>
+        <v>2.800260196200837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>960521.7888653157</v>
+        <v>1054445.028432755</v>
       </c>
     </row>
     <row r="5">
@@ -5826,28 +5826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>781.2388576041083</v>
+        <v>857.1265629813163</v>
       </c>
       <c r="AB5" t="n">
-        <v>1068.925470799863</v>
+        <v>1172.758377226235</v>
       </c>
       <c r="AC5" t="n">
-        <v>966.9087241130441</v>
+        <v>1060.831963680483</v>
       </c>
       <c r="AD5" t="n">
-        <v>781238.8576041083</v>
+        <v>857126.5629813162</v>
       </c>
       <c r="AE5" t="n">
-        <v>1068925.470799863</v>
+        <v>1172758.377226235</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.536686378391747e-06</v>
+        <v>2.799508851903493e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.55946180555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>966908.7241130441</v>
+        <v>1060831.963680483</v>
       </c>
     </row>
   </sheetData>
@@ -6123,28 +6123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>700.6399718476808</v>
+        <v>779.6931398421436</v>
       </c>
       <c r="AB2" t="n">
-        <v>958.6465195360335</v>
+        <v>1066.810551565688</v>
       </c>
       <c r="AC2" t="n">
-        <v>867.1546411803541</v>
+        <v>964.995649802271</v>
       </c>
       <c r="AD2" t="n">
-        <v>700639.9718476809</v>
+        <v>779693.1398421436</v>
       </c>
       <c r="AE2" t="n">
-        <v>958646.5195360335</v>
+        <v>1066810.551565688</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.518499072398538e-06</v>
+        <v>2.975768920789851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.99826388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>867154.6411803542</v>
+        <v>964995.649802271</v>
       </c>
     </row>
     <row r="3">
@@ -6229,28 +6229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>684.9386368665986</v>
+        <v>755.359836603137</v>
       </c>
       <c r="AB3" t="n">
-        <v>937.1632603209051</v>
+        <v>1033.516652564505</v>
       </c>
       <c r="AC3" t="n">
-        <v>847.7217140727739</v>
+        <v>934.8792737934804</v>
       </c>
       <c r="AD3" t="n">
-        <v>684938.6368665986</v>
+        <v>755359.836603137</v>
       </c>
       <c r="AE3" t="n">
-        <v>937163.2603209051</v>
+        <v>1033516.652564505</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543348460137921e-06</v>
+        <v>3.024465714274692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.74001736111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>847721.7140727739</v>
+        <v>934879.2737934804</v>
       </c>
     </row>
   </sheetData>
@@ -6526,28 +6526,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2709.403317759305</v>
+        <v>2841.687502129515</v>
       </c>
       <c r="AB2" t="n">
-        <v>3707.125149796838</v>
+        <v>3888.122206818501</v>
       </c>
       <c r="AC2" t="n">
-        <v>3353.322328482913</v>
+        <v>3517.045280413387</v>
       </c>
       <c r="AD2" t="n">
-        <v>2709403.317759305</v>
+        <v>2841687.502129515</v>
       </c>
       <c r="AE2" t="n">
-        <v>3707125.149796838</v>
+        <v>3888122.206818501</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.090104942015145e-07</v>
+        <v>1.391887351773543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.67491319444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3353322.328482913</v>
+        <v>3517045.280413387</v>
       </c>
     </row>
     <row r="3">
@@ -6632,28 +6632,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1417.983359277445</v>
+        <v>1509.394125486998</v>
       </c>
       <c r="AB3" t="n">
-        <v>1940.14738917416</v>
+        <v>2065.219632260457</v>
       </c>
       <c r="AC3" t="n">
-        <v>1754.98244536534</v>
+        <v>1868.117969111477</v>
       </c>
       <c r="AD3" t="n">
-        <v>1417983.359277445</v>
+        <v>1509394.125486998</v>
       </c>
       <c r="AE3" t="n">
-        <v>1940147.38917416</v>
+        <v>2065219.632260457</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.190734802161245e-06</v>
+        <v>2.048636849983777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.44574652777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1754982.44536534</v>
+        <v>1868117.969111477</v>
       </c>
     </row>
     <row r="4">
@@ -6738,28 +6738,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1151.570070726773</v>
+        <v>1232.975722646902</v>
       </c>
       <c r="AB4" t="n">
-        <v>1575.628974454348</v>
+        <v>1687.011778775364</v>
       </c>
       <c r="AC4" t="n">
-        <v>1425.253156541579</v>
+        <v>1526.005742344945</v>
       </c>
       <c r="AD4" t="n">
-        <v>1151570.070726773</v>
+        <v>1232975.722646902</v>
       </c>
       <c r="AE4" t="n">
-        <v>1575628.974454348</v>
+        <v>1687011.778775364</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.335556486700631e-06</v>
+        <v>2.297799836641772e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.55338541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1425253.156541579</v>
+        <v>1526005.742344945</v>
       </c>
     </row>
     <row r="5">
@@ -6844,28 +6844,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1020.863589010145</v>
+        <v>1102.183900075702</v>
       </c>
       <c r="AB5" t="n">
-        <v>1396.790599806654</v>
+        <v>1508.056637005473</v>
       </c>
       <c r="AC5" t="n">
-        <v>1263.482865369025</v>
+        <v>1364.129828140453</v>
       </c>
       <c r="AD5" t="n">
-        <v>1020863.589010145</v>
+        <v>1102183.900075702</v>
       </c>
       <c r="AE5" t="n">
-        <v>1396790.599806654</v>
+        <v>1508056.637005473</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.411652480890196e-06</v>
+        <v>2.428721564594915e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.71571180555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1263482.865369025</v>
+        <v>1364129.828140453</v>
       </c>
     </row>
     <row r="6">
@@ -6950,28 +6950,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>935.0786716339597</v>
+        <v>1006.223365718052</v>
       </c>
       <c r="AB6" t="n">
-        <v>1279.415891289103</v>
+        <v>1376.759200417343</v>
       </c>
       <c r="AC6" t="n">
-        <v>1157.310234295952</v>
+        <v>1245.363234623185</v>
       </c>
       <c r="AD6" t="n">
-        <v>935078.6716339597</v>
+        <v>1006223.365718052</v>
       </c>
       <c r="AE6" t="n">
-        <v>1279415.891289103</v>
+        <v>1376759.200417344</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.45874585087921e-06</v>
+        <v>2.509744822648936e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.24045138888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1157310.234295952</v>
+        <v>1245363.234623185</v>
       </c>
     </row>
     <row r="7">
@@ -7056,28 +7056,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>911.8473675921938</v>
+        <v>982.9920616762857</v>
       </c>
       <c r="AB7" t="n">
-        <v>1247.629796206358</v>
+        <v>1344.973105334598</v>
       </c>
       <c r="AC7" t="n">
-        <v>1128.557759515839</v>
+        <v>1216.610759843073</v>
       </c>
       <c r="AD7" t="n">
-        <v>911847.3675921938</v>
+        <v>982992.0616762857</v>
       </c>
       <c r="AE7" t="n">
-        <v>1247629.796206358</v>
+        <v>1344973.105334598</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.472242121546793e-06</v>
+        <v>2.532964902701003e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.10807291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1128557.759515839</v>
+        <v>1216610.759843073</v>
       </c>
     </row>
     <row r="8">
@@ -7162,28 +7162,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>919.0611890053394</v>
+        <v>990.2058830894314</v>
       </c>
       <c r="AB8" t="n">
-        <v>1257.500064915163</v>
+        <v>1354.843374043404</v>
       </c>
       <c r="AC8" t="n">
-        <v>1137.486023632085</v>
+        <v>1225.539023959319</v>
       </c>
       <c r="AD8" t="n">
-        <v>919061.1890053394</v>
+        <v>990205.8830894313</v>
       </c>
       <c r="AE8" t="n">
-        <v>1257500.064915163</v>
+        <v>1354843.374043404</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.470710629839833e-06</v>
+        <v>2.530330000000059e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.12326388888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1137486.023632085</v>
+        <v>1225539.023959319</v>
       </c>
     </row>
   </sheetData>
@@ -7459,28 +7459,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>668.2477544389742</v>
+        <v>737.1023069563238</v>
       </c>
       <c r="AB2" t="n">
-        <v>914.3260586336658</v>
+        <v>1008.535895036374</v>
       </c>
       <c r="AC2" t="n">
-        <v>827.0640628623511</v>
+        <v>912.2826447031207</v>
       </c>
       <c r="AD2" t="n">
-        <v>668247.7544389742</v>
+        <v>737102.3069563238</v>
       </c>
       <c r="AE2" t="n">
-        <v>914326.0586336658</v>
+        <v>1008535.895036374</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.518837044646667e-06</v>
+        <v>3.04475244192473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.3671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>827064.0628623511</v>
+        <v>912282.6447031207</v>
       </c>
     </row>
     <row r="3">
@@ -7565,28 +7565,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>673.958675351939</v>
+        <v>742.8132278692885</v>
       </c>
       <c r="AB3" t="n">
-        <v>922.1399925748331</v>
+        <v>1016.349828977542</v>
       </c>
       <c r="AC3" t="n">
-        <v>834.1322459150986</v>
+        <v>919.3508277558682</v>
       </c>
       <c r="AD3" t="n">
-        <v>673958.6753519389</v>
+        <v>742813.2278692885</v>
       </c>
       <c r="AE3" t="n">
-        <v>922139.9925748331</v>
+        <v>1016349.828977542</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.519638904463585e-06</v>
+        <v>3.046359898527299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.35850694444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>834132.2459150986</v>
+        <v>919350.8277558682</v>
       </c>
     </row>
   </sheetData>
@@ -7862,28 +7862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1851.222657005158</v>
+        <v>1959.179426192622</v>
       </c>
       <c r="AB2" t="n">
-        <v>2532.924509494092</v>
+        <v>2680.635723812901</v>
       </c>
       <c r="AC2" t="n">
-        <v>2291.185749289852</v>
+        <v>2424.799612628065</v>
       </c>
       <c r="AD2" t="n">
-        <v>1851222.657005158</v>
+        <v>1959179.426192622</v>
       </c>
       <c r="AE2" t="n">
-        <v>2532924.509494091</v>
+        <v>2680635.723812901</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.919491768337134e-07</v>
+        <v>1.756815700840667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2291185.749289852</v>
+        <v>2424799.612628065</v>
       </c>
     </row>
     <row r="3">
@@ -7968,28 +7968,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1100.300758942961</v>
+        <v>1178.729521551459</v>
       </c>
       <c r="AB3" t="n">
-        <v>1505.480040229332</v>
+        <v>1612.78973326309</v>
       </c>
       <c r="AC3" t="n">
-        <v>1361.799138144351</v>
+        <v>1458.867344685067</v>
       </c>
       <c r="AD3" t="n">
-        <v>1100300.758942961</v>
+        <v>1178729.521551459</v>
       </c>
       <c r="AE3" t="n">
-        <v>1505480.040229332</v>
+        <v>1612789.73326309</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.337957131072359e-06</v>
+        <v>2.369621498575719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.14149305555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1361799.138144351</v>
+        <v>1458867.344685067</v>
       </c>
     </row>
     <row r="4">
@@ -8074,28 +8074,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>896.9079505334848</v>
+        <v>975.3366236334329</v>
       </c>
       <c r="AB4" t="n">
-        <v>1227.189026706067</v>
+        <v>1334.498597270276</v>
       </c>
       <c r="AC4" t="n">
-        <v>1110.067828367856</v>
+        <v>1207.135924127345</v>
       </c>
       <c r="AD4" t="n">
-        <v>896907.9505334848</v>
+        <v>975336.6236334329</v>
       </c>
       <c r="AE4" t="n">
-        <v>1227189.026706067</v>
+        <v>1334498.597270276</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.467025959558849e-06</v>
+        <v>2.598211984529807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1110067.828367856</v>
+        <v>1207135.924127345</v>
       </c>
     </row>
     <row r="5">
@@ -8180,28 +8180,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>834.2311781501328</v>
+        <v>902.8456890143168</v>
       </c>
       <c r="AB5" t="n">
-        <v>1141.431901627119</v>
+        <v>1235.313302450076</v>
       </c>
       <c r="AC5" t="n">
-        <v>1032.495242945561</v>
+        <v>1117.416734637349</v>
       </c>
       <c r="AD5" t="n">
-        <v>834231.1781501328</v>
+        <v>902845.6890143168</v>
       </c>
       <c r="AE5" t="n">
-        <v>1141431.901627119</v>
+        <v>1235313.302450076</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.509816704546659e-06</v>
+        <v>2.673997573550823e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.30338541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1032495.242945561</v>
+        <v>1117416.734637349</v>
       </c>
     </row>
     <row r="6">
@@ -8286,28 +8286,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>838.2840466460824</v>
+        <v>906.8985575102666</v>
       </c>
       <c r="AB6" t="n">
-        <v>1146.977215103216</v>
+        <v>1240.858615926173</v>
       </c>
       <c r="AC6" t="n">
-        <v>1037.511319486397</v>
+        <v>1122.432811178184</v>
       </c>
       <c r="AD6" t="n">
-        <v>838284.0466460824</v>
+        <v>906898.5575102667</v>
       </c>
       <c r="AE6" t="n">
-        <v>1146977.215103216</v>
+        <v>1240858.615926173</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.509518164465349e-06</v>
+        <v>2.673468836883234e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.30555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1037511.319486397</v>
+        <v>1122432.811178184</v>
       </c>
     </row>
   </sheetData>
@@ -8583,28 +8583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2248.474239782804</v>
+        <v>2368.500540108711</v>
       </c>
       <c r="AB2" t="n">
-        <v>3076.461650553588</v>
+        <v>3240.686929846159</v>
       </c>
       <c r="AC2" t="n">
-        <v>2782.848468465683</v>
+        <v>2931.400317594192</v>
       </c>
       <c r="AD2" t="n">
-        <v>2248474.239782804</v>
+        <v>2368500.540108711</v>
       </c>
       <c r="AE2" t="n">
-        <v>3076461.650553588</v>
+        <v>3240686.929846159</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.955675097206375e-07</v>
+        <v>1.561791536710394e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.62847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2782848.468465683</v>
+        <v>2931400.317594192</v>
       </c>
     </row>
     <row r="3">
@@ -8689,28 +8689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1250.396531693466</v>
+        <v>1340.330916083326</v>
       </c>
       <c r="AB3" t="n">
-        <v>1710.847698264728</v>
+        <v>1833.899890611951</v>
       </c>
       <c r="AC3" t="n">
-        <v>1547.566795132167</v>
+        <v>1658.875058946608</v>
       </c>
       <c r="AD3" t="n">
-        <v>1250396.531693466</v>
+        <v>1340330.916083326</v>
       </c>
       <c r="AE3" t="n">
-        <v>1710847.698264728</v>
+        <v>1833899.890611951</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.261497271721895e-06</v>
+        <v>2.199941088944918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.77300347222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1547566.795132167</v>
+        <v>1658875.058946608</v>
       </c>
     </row>
     <row r="4">
@@ -8795,28 +8795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1030.752182190128</v>
+        <v>1100.767613555458</v>
       </c>
       <c r="AB4" t="n">
-        <v>1410.320609249448</v>
+        <v>1506.118811306323</v>
       </c>
       <c r="AC4" t="n">
-        <v>1275.721589700086</v>
+        <v>1362.376945806276</v>
       </c>
       <c r="AD4" t="n">
-        <v>1030752.182190128</v>
+        <v>1100767.613555458</v>
       </c>
       <c r="AE4" t="n">
-        <v>1410320.609249448</v>
+        <v>1506118.811306323</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.398001845876374e-06</v>
+        <v>2.437993146799524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.13454861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1275721.589700087</v>
+        <v>1362376.945806276</v>
       </c>
     </row>
     <row r="5">
@@ -8901,28 +8901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>909.8456097220318</v>
+        <v>979.7757002327907</v>
       </c>
       <c r="AB5" t="n">
-        <v>1244.890902777078</v>
+        <v>1340.572337711756</v>
       </c>
       <c r="AC5" t="n">
-        <v>1126.080262231388</v>
+        <v>1212.629995305638</v>
       </c>
       <c r="AD5" t="n">
-        <v>909845.6097220317</v>
+        <v>979775.7002327907</v>
       </c>
       <c r="AE5" t="n">
-        <v>1244890.902777078</v>
+        <v>1340572.337711756</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.468496708100438e-06</v>
+        <v>2.560930030963009e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.40972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1126080.262231388</v>
+        <v>1212629.995305639</v>
       </c>
     </row>
     <row r="6">
@@ -9007,28 +9007,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>871.2869508582344</v>
+        <v>941.2170413689933</v>
       </c>
       <c r="AB6" t="n">
-        <v>1192.133244631658</v>
+        <v>1287.814679566336</v>
       </c>
       <c r="AC6" t="n">
-        <v>1078.357720933529</v>
+        <v>1164.907454007779</v>
       </c>
       <c r="AD6" t="n">
-        <v>871286.9508582344</v>
+        <v>941217.0413689932</v>
       </c>
       <c r="AE6" t="n">
-        <v>1192133.244631658</v>
+        <v>1287814.679566336</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.490239936697901e-06</v>
+        <v>2.598848323035565e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.19921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1078357.720933529</v>
+        <v>1164907.454007779</v>
       </c>
     </row>
     <row r="7">
@@ -9113,28 +9113,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>873.8875063771892</v>
+        <v>943.8175968879482</v>
       </c>
       <c r="AB7" t="n">
-        <v>1195.691439421104</v>
+        <v>1291.372874355782</v>
       </c>
       <c r="AC7" t="n">
-        <v>1081.576326606229</v>
+        <v>1168.126059680478</v>
       </c>
       <c r="AD7" t="n">
-        <v>873887.5063771892</v>
+        <v>943817.5968879482</v>
       </c>
       <c r="AE7" t="n">
-        <v>1195691.439421104</v>
+        <v>1291372.874355783</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.491702485706699e-06</v>
+        <v>2.601398880798293e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.18402777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1081576.326606228</v>
+        <v>1168126.059680478</v>
       </c>
     </row>
   </sheetData>
@@ -9410,28 +9410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3258.049553574248</v>
+        <v>3412.940251722844</v>
       </c>
       <c r="AB2" t="n">
-        <v>4457.807134202536</v>
+        <v>4669.735420704792</v>
       </c>
       <c r="AC2" t="n">
-        <v>4032.360277885686</v>
+        <v>4224.062426167377</v>
       </c>
       <c r="AD2" t="n">
-        <v>3258049.553574247</v>
+        <v>3412940.251722844</v>
       </c>
       <c r="AE2" t="n">
-        <v>4457807.134202536</v>
+        <v>4669735.420704792</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.300299257804181e-07</v>
+        <v>1.241002490086841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.97743055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>4032360.277885686</v>
+        <v>4224062.426167376</v>
       </c>
     </row>
     <row r="3">
@@ -9516,28 +9516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1593.621848463661</v>
+        <v>1686.573425032284</v>
       </c>
       <c r="AB3" t="n">
-        <v>2180.463718702012</v>
+        <v>2307.644166497346</v>
       </c>
       <c r="AC3" t="n">
-        <v>1972.363321689141</v>
+        <v>2087.405846045768</v>
       </c>
       <c r="AD3" t="n">
-        <v>1593621.848463661</v>
+        <v>1686573.425032284</v>
       </c>
       <c r="AE3" t="n">
-        <v>2180463.718702012</v>
+        <v>2307644.166497346</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.125302026886227e-06</v>
+        <v>1.912938864763227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1972363.321689141</v>
+        <v>2087405.846045768</v>
       </c>
     </row>
     <row r="4">
@@ -9622,28 +9622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1273.679146953774</v>
+        <v>1366.545293159275</v>
       </c>
       <c r="AB4" t="n">
-        <v>1742.703999620373</v>
+        <v>1869.76755782396</v>
       </c>
       <c r="AC4" t="n">
-        <v>1576.382775797029</v>
+        <v>1691.31956634049</v>
       </c>
       <c r="AD4" t="n">
-        <v>1273679.146953774</v>
+        <v>1366545.293159275</v>
       </c>
       <c r="AE4" t="n">
-        <v>1742703.999620373</v>
+        <v>1869767.55782396</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.277199448596887e-06</v>
+        <v>2.171154414460296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.99175347222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1576382.775797029</v>
+        <v>1691319.56634049</v>
       </c>
     </row>
     <row r="5">
@@ -9728,28 +9728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1138.997830202456</v>
+        <v>1211.359896977953</v>
       </c>
       <c r="AB5" t="n">
-        <v>1558.427080320871</v>
+        <v>1657.436052472184</v>
       </c>
       <c r="AC5" t="n">
-        <v>1409.692987041191</v>
+        <v>1499.252681850348</v>
       </c>
       <c r="AD5" t="n">
-        <v>1138997.830202457</v>
+        <v>1211359.896977953</v>
       </c>
       <c r="AE5" t="n">
-        <v>1558427.080320871</v>
+        <v>1657436.052472184</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.357100880463276e-06</v>
+        <v>2.306981553055594e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.04991319444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1409692.987041191</v>
+        <v>1499252.681850348</v>
       </c>
     </row>
     <row r="6">
@@ -9834,28 +9834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1039.68336157281</v>
+        <v>1111.960087493735</v>
       </c>
       <c r="AB6" t="n">
-        <v>1422.540642896659</v>
+        <v>1521.432847925774</v>
       </c>
       <c r="AC6" t="n">
-        <v>1286.775360486933</v>
+        <v>1376.229432264151</v>
       </c>
       <c r="AD6" t="n">
-        <v>1039683.36157281</v>
+        <v>1111960.087493735</v>
       </c>
       <c r="AE6" t="n">
-        <v>1422540.642896659</v>
+        <v>1521432.847925774</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.408956815632157e-06</v>
+        <v>2.395133206019092e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.49652777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1286775.360486933</v>
+        <v>1376229.432264151</v>
       </c>
     </row>
     <row r="7">
@@ -9940,28 +9940,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>973.6564078748734</v>
+        <v>1045.933133795798</v>
       </c>
       <c r="AB7" t="n">
-        <v>1332.199651943528</v>
+        <v>1431.091856972643</v>
       </c>
       <c r="AC7" t="n">
-        <v>1205.056386915992</v>
+        <v>1294.51045869321</v>
       </c>
       <c r="AD7" t="n">
-        <v>973656.4078748734</v>
+        <v>1045933.133795798</v>
       </c>
       <c r="AE7" t="n">
-        <v>1332199.651943528</v>
+        <v>1431091.856972643</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.44217849460605e-06</v>
+        <v>2.45160785846213e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.16232638888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1205056.386915992</v>
+        <v>1294510.45869321</v>
       </c>
     </row>
     <row r="8">
@@ -10046,28 +10046,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>951.3694852124156</v>
+        <v>1023.646211133341</v>
       </c>
       <c r="AB8" t="n">
-        <v>1301.705701127118</v>
+        <v>1400.597906156233</v>
       </c>
       <c r="AC8" t="n">
-        <v>1177.472735966971</v>
+        <v>1266.926807744189</v>
       </c>
       <c r="AD8" t="n">
-        <v>951369.4852124156</v>
+        <v>1023646.211133341</v>
       </c>
       <c r="AE8" t="n">
-        <v>1301705.701127118</v>
+        <v>1400597.906156233</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.452624971563846e-06</v>
+        <v>2.46936617693572e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.06032986111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1177472.735966971</v>
+        <v>1266926.807744189</v>
       </c>
     </row>
     <row r="9">
@@ -10152,28 +10152,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>954.0128920978301</v>
+        <v>1026.289618018755</v>
       </c>
       <c r="AB9" t="n">
-        <v>1305.322527046624</v>
+        <v>1404.214732075739</v>
       </c>
       <c r="AC9" t="n">
-        <v>1180.744377096966</v>
+        <v>1270.198448874184</v>
       </c>
       <c r="AD9" t="n">
-        <v>954012.8920978301</v>
+        <v>1026289.618018755</v>
       </c>
       <c r="AE9" t="n">
-        <v>1305322.527046624</v>
+        <v>1404214.732075739</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.452060297133695e-06</v>
+        <v>2.46840626782904e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.06467013888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1180744.377096966</v>
+        <v>1270198.448874184</v>
       </c>
     </row>
   </sheetData>
@@ -10449,28 +10449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1518.222205585664</v>
+        <v>1614.218417851184</v>
       </c>
       <c r="AB2" t="n">
-        <v>2077.298600918859</v>
+        <v>2208.644853594533</v>
       </c>
       <c r="AC2" t="n">
-        <v>1879.04413795406</v>
+        <v>1997.854888619991</v>
       </c>
       <c r="AD2" t="n">
-        <v>1518222.205585664</v>
+        <v>1614218.417851184</v>
       </c>
       <c r="AE2" t="n">
-        <v>2077298.600918859</v>
+        <v>2208644.853594533</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.099095366138724e-06</v>
+        <v>1.981929035012328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.10199652777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1879044.13795406</v>
+        <v>1997854.888619991</v>
       </c>
     </row>
     <row r="3">
@@ -10555,28 +10555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>939.1065584575844</v>
+        <v>1015.801137146224</v>
       </c>
       <c r="AB3" t="n">
-        <v>1284.927023739012</v>
+        <v>1389.863929826823</v>
       </c>
       <c r="AC3" t="n">
-        <v>1162.295391999764</v>
+        <v>1257.217267050427</v>
       </c>
       <c r="AD3" t="n">
-        <v>939106.5584575844</v>
+        <v>1015801.137146224</v>
       </c>
       <c r="AE3" t="n">
-        <v>1284927.023739012</v>
+        <v>1389863.929826823</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.425514981130919e-06</v>
+        <v>2.570540844762169e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.49913194444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1162295.391999764</v>
+        <v>1257217.267050427</v>
       </c>
     </row>
     <row r="4">
@@ -10661,28 +10661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>800.1828399845148</v>
+        <v>867.3546131665723</v>
       </c>
       <c r="AB4" t="n">
-        <v>1094.845463242254</v>
+        <v>1186.75284671943</v>
       </c>
       <c r="AC4" t="n">
-        <v>990.354948855671</v>
+        <v>1073.490820646609</v>
       </c>
       <c r="AD4" t="n">
-        <v>800182.8399845148</v>
+        <v>867354.6131665723</v>
       </c>
       <c r="AE4" t="n">
-        <v>1094845.463242254</v>
+        <v>1186752.84671943</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524072120030621e-06</v>
+        <v>2.748262688754011e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.49869791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>990354.948855671</v>
+        <v>1073490.820646609</v>
       </c>
     </row>
     <row r="5">
@@ -10767,28 +10767,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>796.836822524627</v>
+        <v>864.0085957066843</v>
       </c>
       <c r="AB5" t="n">
-        <v>1090.267294537763</v>
+        <v>1182.17467801494</v>
       </c>
       <c r="AC5" t="n">
-        <v>986.2137141468367</v>
+        <v>1069.349585937775</v>
       </c>
       <c r="AD5" t="n">
-        <v>796836.822524627</v>
+        <v>864008.5957066843</v>
       </c>
       <c r="AE5" t="n">
-        <v>1090267.294537763</v>
+        <v>1182174.67801494</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.529468327015832e-06</v>
+        <v>2.757993326906457e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.44661458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>986213.7141468367</v>
+        <v>1069349.585937775</v>
       </c>
     </row>
   </sheetData>
@@ -11064,28 +11064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1067.166725245432</v>
+        <v>1150.432209740718</v>
       </c>
       <c r="AB2" t="n">
-        <v>1460.144593553973</v>
+        <v>1574.072102854343</v>
       </c>
       <c r="AC2" t="n">
-        <v>1320.790442870989</v>
+        <v>1423.844870581995</v>
       </c>
       <c r="AD2" t="n">
-        <v>1067166.725245432</v>
+        <v>1150432.209740718</v>
       </c>
       <c r="AE2" t="n">
-        <v>1460144.593553973</v>
+        <v>1574072.102854343</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.293692009753869e-06</v>
+        <v>2.413615770944736e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.79079861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1320790.442870989</v>
+        <v>1423844.870581995</v>
       </c>
     </row>
     <row r="3">
@@ -11170,28 +11170,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>738.2401866393966</v>
+        <v>812.1686097806348</v>
       </c>
       <c r="AB3" t="n">
-        <v>1010.092792218463</v>
+        <v>1111.24492225215</v>
       </c>
       <c r="AC3" t="n">
-        <v>913.6909538032698</v>
+        <v>1005.189266514448</v>
       </c>
       <c r="AD3" t="n">
-        <v>738240.1866393966</v>
+        <v>812168.6097806349</v>
       </c>
       <c r="AE3" t="n">
-        <v>1010092.792218463</v>
+        <v>1111244.92225215</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.544942737013003e-06</v>
+        <v>2.882369317539922e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.89800347222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>913690.9538032699</v>
+        <v>1005189.266514448</v>
       </c>
     </row>
     <row r="4">
@@ -11276,28 +11276,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>736.8418704145083</v>
+        <v>810.7702935557467</v>
       </c>
       <c r="AB4" t="n">
-        <v>1008.179554270213</v>
+        <v>1109.331684303899</v>
       </c>
       <c r="AC4" t="n">
-        <v>911.9603125995544</v>
+        <v>1003.458625310732</v>
       </c>
       <c r="AD4" t="n">
-        <v>736841.8704145083</v>
+        <v>810770.2935557467</v>
       </c>
       <c r="AE4" t="n">
-        <v>1008179.554270213</v>
+        <v>1109331.6843039</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.550881969063029e-06</v>
+        <v>2.893450026112877e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.84157986111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>911960.3125995544</v>
+        <v>1003458.625310732</v>
       </c>
     </row>
   </sheetData>
@@ -20058,28 +20058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>801.7513232667138</v>
+        <v>873.400653092635</v>
       </c>
       <c r="AB2" t="n">
-        <v>1096.991531265557</v>
+        <v>1195.025305278726</v>
       </c>
       <c r="AC2" t="n">
-        <v>992.296199158856</v>
+        <v>1080.973767371474</v>
       </c>
       <c r="AD2" t="n">
-        <v>801751.3232667139</v>
+        <v>873400.653092635</v>
       </c>
       <c r="AE2" t="n">
-        <v>1096991.531265557</v>
+        <v>1195025.305278726</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.457740996936827e-06</v>
+        <v>2.803289995404859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.33246527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>992296.1991588559</v>
+        <v>1080973.767371474</v>
       </c>
     </row>
     <row r="3">
@@ -20164,28 +20164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>702.4766677234111</v>
+        <v>774.0406566947605</v>
       </c>
       <c r="AB3" t="n">
-        <v>961.1595678625109</v>
+        <v>1059.076574753482</v>
       </c>
       <c r="AC3" t="n">
-        <v>869.4278477016381</v>
+        <v>957.9997928823173</v>
       </c>
       <c r="AD3" t="n">
-        <v>702476.6677234111</v>
+        <v>774040.6566947605</v>
       </c>
       <c r="AE3" t="n">
-        <v>961159.5678625109</v>
+        <v>1059076.574753482</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.553080571433561e-06</v>
+        <v>2.986631532697463e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.32986111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>869427.8477016381</v>
+        <v>957999.7928823172</v>
       </c>
     </row>
   </sheetData>
@@ -20461,28 +20461,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>657.8826773592614</v>
+        <v>733.3306859095929</v>
       </c>
       <c r="AB2" t="n">
-        <v>900.1441028982748</v>
+        <v>1003.37539672806</v>
       </c>
       <c r="AC2" t="n">
-        <v>814.2356130778459</v>
+        <v>907.6146571105471</v>
       </c>
       <c r="AD2" t="n">
-        <v>657882.6773592614</v>
+        <v>733330.6859095929</v>
       </c>
       <c r="AE2" t="n">
-        <v>900144.1028982748</v>
+        <v>1003375.39672806</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.466275973795953e-06</v>
+        <v>3.024339828482027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.42838541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>814235.6130778459</v>
+        <v>907614.6571105471</v>
       </c>
     </row>
   </sheetData>
@@ -20758,28 +20758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2041.000752472857</v>
+        <v>2159.838123260533</v>
       </c>
       <c r="AB2" t="n">
-        <v>2792.587272131674</v>
+        <v>2955.185805578158</v>
       </c>
       <c r="AC2" t="n">
-        <v>2526.066662300279</v>
+        <v>2673.147019923106</v>
       </c>
       <c r="AD2" t="n">
-        <v>2041000.752472857</v>
+        <v>2159838.123260533</v>
       </c>
       <c r="AE2" t="n">
-        <v>2792587.272131674</v>
+        <v>2955185.805578158</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.428152587158665e-07</v>
+        <v>1.656489217598899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.66710069444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2526066.662300279</v>
+        <v>2673147.019923106</v>
       </c>
     </row>
     <row r="3">
@@ -20864,28 +20864,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1174.003655875485</v>
+        <v>1253.200212290964</v>
       </c>
       <c r="AB3" t="n">
-        <v>1606.323595354743</v>
+        <v>1714.683817747882</v>
       </c>
       <c r="AC3" t="n">
-        <v>1453.018325903411</v>
+        <v>1551.036800755877</v>
       </c>
       <c r="AD3" t="n">
-        <v>1174003.655875485</v>
+        <v>1253200.212290964</v>
       </c>
       <c r="AE3" t="n">
-        <v>1606323.595354743</v>
+        <v>1714683.817747882</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.299497613747083e-06</v>
+        <v>2.2831660450632e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.4453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1453018.325903411</v>
+        <v>1551036.800755877</v>
       </c>
     </row>
     <row r="4">
@@ -20970,28 +20970,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>961.3764349630035</v>
+        <v>1040.572901869931</v>
       </c>
       <c r="AB4" t="n">
-        <v>1315.397651251337</v>
+        <v>1423.757751174928</v>
       </c>
       <c r="AC4" t="n">
-        <v>1189.857945588108</v>
+        <v>1287.876309659347</v>
       </c>
       <c r="AD4" t="n">
-        <v>961376.4349630035</v>
+        <v>1040572.901869931</v>
       </c>
       <c r="AE4" t="n">
-        <v>1315397.651251337</v>
+        <v>1423757.751174928</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.430865438598448e-06</v>
+        <v>2.513974131158555e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.93706597222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1189857.945588108</v>
+        <v>1287876.309659347</v>
       </c>
     </row>
     <row r="5">
@@ -21076,28 +21076,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>867.5603687829636</v>
+        <v>936.8466992282548</v>
       </c>
       <c r="AB5" t="n">
-        <v>1187.034370631075</v>
+        <v>1281.83498464349</v>
       </c>
       <c r="AC5" t="n">
-        <v>1073.745476311247</v>
+        <v>1159.498452775815</v>
       </c>
       <c r="AD5" t="n">
-        <v>867560.3687829636</v>
+        <v>936846.6992282548</v>
       </c>
       <c r="AE5" t="n">
-        <v>1187034.370631075</v>
+        <v>1281834.98464349</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.491822472768609e-06</v>
+        <v>2.621073235576115e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.32508680555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1073745.476311247</v>
+        <v>1159498.452775815</v>
       </c>
     </row>
     <row r="6">
@@ -21182,28 +21182,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>856.4114718080561</v>
+        <v>925.6978022533472</v>
       </c>
       <c r="AB6" t="n">
-        <v>1171.779957935385</v>
+        <v>1266.5805719478</v>
       </c>
       <c r="AC6" t="n">
-        <v>1059.946923353531</v>
+        <v>1145.699899818099</v>
       </c>
       <c r="AD6" t="n">
-        <v>856411.4718080561</v>
+        <v>925697.8022533471</v>
       </c>
       <c r="AE6" t="n">
-        <v>1171779.957935384</v>
+        <v>1266580.5719478</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.499700603194478e-06</v>
+        <v>2.634914799959644e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.24913194444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1059946.923353531</v>
+        <v>1145699.899818099</v>
       </c>
     </row>
     <row r="7">
@@ -21288,28 +21288,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>860.547703367091</v>
+        <v>929.8340338123822</v>
       </c>
       <c r="AB7" t="n">
-        <v>1177.439332432114</v>
+        <v>1272.23994644453</v>
       </c>
       <c r="AC7" t="n">
-        <v>1065.066175091275</v>
+        <v>1150.819151555843</v>
       </c>
       <c r="AD7" t="n">
-        <v>860547.703367091</v>
+        <v>929834.0338123823</v>
       </c>
       <c r="AE7" t="n">
-        <v>1177439.332432114</v>
+        <v>1272239.94644453</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.499700603194478e-06</v>
+        <v>2.634914799959644e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.25130208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1065066.175091275</v>
+        <v>1150819.151555843</v>
       </c>
     </row>
   </sheetData>
@@ -21585,28 +21585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2973.301901602259</v>
+        <v>3116.827255561505</v>
       </c>
       <c r="AB2" t="n">
-        <v>4068.202834594629</v>
+        <v>4264.580555773416</v>
       </c>
       <c r="AC2" t="n">
-        <v>3679.939265819303</v>
+        <v>3857.574972906642</v>
       </c>
       <c r="AD2" t="n">
-        <v>2973301.901602259</v>
+        <v>3116827.255561505</v>
       </c>
       <c r="AE2" t="n">
-        <v>4068202.834594629</v>
+        <v>4264580.555773416</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.683665531948892e-07</v>
+        <v>1.313821177353934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.80121527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>3679939.265819303</v>
+        <v>3857574.972906642</v>
       </c>
     </row>
     <row r="3">
@@ -21691,28 +21691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1497.497657680821</v>
+        <v>1589.818818632561</v>
       </c>
       <c r="AB3" t="n">
-        <v>2048.942360172927</v>
+        <v>2175.260245509266</v>
       </c>
       <c r="AC3" t="n">
-        <v>1853.394177026686</v>
+        <v>1967.65646067479</v>
       </c>
       <c r="AD3" t="n">
-        <v>1497497.657680821</v>
+        <v>1589818.818632561</v>
       </c>
       <c r="AE3" t="n">
-        <v>2048942.360172927</v>
+        <v>2175260.245509266</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.158101199850615e-06</v>
+        <v>1.980223990172583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.78211805555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1853394.177026686</v>
+        <v>1967656.46067479</v>
       </c>
     </row>
     <row r="4">
@@ -21797,28 +21797,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1214.953316338005</v>
+        <v>1297.01657051733</v>
       </c>
       <c r="AB4" t="n">
-        <v>1662.352727371081</v>
+        <v>1774.635292114493</v>
       </c>
       <c r="AC4" t="n">
-        <v>1503.700116197491</v>
+        <v>1605.266590551361</v>
       </c>
       <c r="AD4" t="n">
-        <v>1214953.316338005</v>
+        <v>1297016.57051733</v>
       </c>
       <c r="AE4" t="n">
-        <v>1662352.727371081</v>
+        <v>1774635.292114493</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.304144935230006e-06</v>
+        <v>2.229942502207621e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.78993055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1503700.116197491</v>
+        <v>1605266.590551361</v>
       </c>
     </row>
     <row r="5">
@@ -21903,28 +21903,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1073.252774244178</v>
+        <v>1155.230687568931</v>
       </c>
       <c r="AB5" t="n">
-        <v>1468.47179429159</v>
+        <v>1580.637591912805</v>
       </c>
       <c r="AC5" t="n">
-        <v>1328.322907257508</v>
+        <v>1429.78375857944</v>
       </c>
       <c r="AD5" t="n">
-        <v>1073252.774244178</v>
+        <v>1155230.687568931</v>
       </c>
       <c r="AE5" t="n">
-        <v>1468471.79429159</v>
+        <v>1580637.591912805</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.383951810768712e-06</v>
+        <v>2.366403365509419e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.88064236111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1328322.907257508</v>
+        <v>1429783.75857944</v>
       </c>
     </row>
     <row r="6">
@@ -22009,28 +22009,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>987.3817302611288</v>
+        <v>1059.101826322017</v>
       </c>
       <c r="AB6" t="n">
-        <v>1350.979243550891</v>
+        <v>1449.109843048728</v>
       </c>
       <c r="AC6" t="n">
-        <v>1222.04368065767</v>
+        <v>1310.808833466595</v>
       </c>
       <c r="AD6" t="n">
-        <v>987381.7302611289</v>
+        <v>1059101.826322017</v>
       </c>
       <c r="AE6" t="n">
-        <v>1350979.243550891</v>
+        <v>1449109.843048728</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.433771798471234e-06</v>
+        <v>2.451589992421956e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.36197916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1222043.68065767</v>
+        <v>1310808.833466595</v>
       </c>
     </row>
     <row r="7">
@@ -22115,28 +22115,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>936.9092195130563</v>
+        <v>1008.629315573945</v>
       </c>
       <c r="AB7" t="n">
-        <v>1281.920527655356</v>
+        <v>1380.051127153193</v>
       </c>
       <c r="AC7" t="n">
-        <v>1159.575831682689</v>
+        <v>1248.340984491613</v>
       </c>
       <c r="AD7" t="n">
-        <v>936909.2195130563</v>
+        <v>1008629.315573945</v>
       </c>
       <c r="AE7" t="n">
-        <v>1281920.527655356</v>
+        <v>1380051.127153193</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.459583296861874e-06</v>
+        <v>2.495724778174738e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.10807291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1159575.831682689</v>
+        <v>1248340.984491613</v>
       </c>
     </row>
     <row r="8">
@@ -22221,28 +22221,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>937.0261834808211</v>
+        <v>1008.746279541709</v>
       </c>
       <c r="AB8" t="n">
-        <v>1282.080562916138</v>
+        <v>1380.211162413975</v>
       </c>
       <c r="AC8" t="n">
-        <v>1159.720593402792</v>
+        <v>1248.485746211717</v>
       </c>
       <c r="AD8" t="n">
-        <v>937026.1834808212</v>
+        <v>1008746.279541709</v>
       </c>
       <c r="AE8" t="n">
-        <v>1282080.562916138</v>
+        <v>1380211.162413975</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.461386305940631e-06</v>
+        <v>2.498807722767763e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.09288194444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1159720.593402792</v>
+        <v>1248485.746211717</v>
       </c>
     </row>
     <row r="9">
@@ -22327,28 +22327,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>941.2273940246442</v>
+        <v>1012.947490085533</v>
       </c>
       <c r="AB9" t="n">
-        <v>1287.828844526525</v>
+        <v>1385.959444024362</v>
       </c>
       <c r="AC9" t="n">
-        <v>1164.920267084048</v>
+        <v>1253.685419892973</v>
       </c>
       <c r="AD9" t="n">
-        <v>941227.3940246443</v>
+        <v>1012947.490085533</v>
       </c>
       <c r="AE9" t="n">
-        <v>1287828.844526525</v>
+        <v>1385959.444024362</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.46129141072596e-06</v>
+        <v>2.498645462526025e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.09288194444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1164920.267084048</v>
+        <v>1253685.419892973</v>
       </c>
     </row>
   </sheetData>
@@ -22624,28 +22624,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>660.9768763814632</v>
+        <v>742.3561610489356</v>
       </c>
       <c r="AB2" t="n">
-        <v>904.3777225068779</v>
+        <v>1015.72444998957</v>
       </c>
       <c r="AC2" t="n">
-        <v>818.0651819729262</v>
+        <v>918.7851340607835</v>
       </c>
       <c r="AD2" t="n">
-        <v>660976.8763814631</v>
+        <v>742356.1610489356</v>
       </c>
       <c r="AE2" t="n">
-        <v>904377.722506878</v>
+        <v>1015724.44998957</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.340794969850356e-06</v>
+        <v>2.873941177763146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.73524305555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>818065.1819729262</v>
+        <v>918785.1340607835</v>
       </c>
     </row>
   </sheetData>
@@ -22921,28 +22921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1210.125664318223</v>
+        <v>1303.822763214445</v>
       </c>
       <c r="AB2" t="n">
-        <v>1655.747320896639</v>
+        <v>1783.947825230717</v>
       </c>
       <c r="AC2" t="n">
-        <v>1497.725120446223</v>
+        <v>1613.690348577195</v>
       </c>
       <c r="AD2" t="n">
-        <v>1210125.664318223</v>
+        <v>1303822.763214445</v>
       </c>
       <c r="AE2" t="n">
-        <v>1655747.320896639</v>
+        <v>1783947.825230717</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.22341555903922e-06</v>
+        <v>2.25406062992634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.53949652777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1497725.120446223</v>
+        <v>1613690.348577195</v>
       </c>
     </row>
     <row r="3">
@@ -23027,28 +23027,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>786.4955162121826</v>
+        <v>861.4361271582462</v>
       </c>
       <c r="AB3" t="n">
-        <v>1076.117863014841</v>
+        <v>1178.654913057664</v>
       </c>
       <c r="AC3" t="n">
-        <v>973.4146845096105</v>
+        <v>1066.165742408</v>
       </c>
       <c r="AD3" t="n">
-        <v>786495.5162121826</v>
+        <v>861436.1271582462</v>
       </c>
       <c r="AE3" t="n">
-        <v>1076117.863014841</v>
+        <v>1178654.913057664</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.51604870147129e-06</v>
+        <v>2.793217452392917e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.9609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>973414.6845096105</v>
+        <v>1066165.742408</v>
       </c>
     </row>
     <row r="4">
@@ -23133,28 +23133,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>754.9002589496896</v>
+        <v>829.8408698957531</v>
       </c>
       <c r="AB4" t="n">
-        <v>1032.887838143923</v>
+        <v>1135.424888186746</v>
       </c>
       <c r="AC4" t="n">
-        <v>934.310472538652</v>
+        <v>1027.061530437041</v>
       </c>
       <c r="AD4" t="n">
-        <v>754900.2589496896</v>
+        <v>829840.8698957531</v>
       </c>
       <c r="AE4" t="n">
-        <v>1032887.838143923</v>
+        <v>1135424.888186746</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.544998480204748e-06</v>
+        <v>2.846555466615503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.67881944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>934310.472538652</v>
+        <v>1027061.530437042</v>
       </c>
     </row>
   </sheetData>
@@ -23430,28 +23430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1673.867994484357</v>
+        <v>1780.634060279711</v>
       </c>
       <c r="AB2" t="n">
-        <v>2290.260035897635</v>
+        <v>2436.342077305234</v>
       </c>
       <c r="AC2" t="n">
-        <v>2071.680832471713</v>
+        <v>2203.821008874803</v>
       </c>
       <c r="AD2" t="n">
-        <v>1673867.994484357</v>
+        <v>1780634.060279711</v>
       </c>
       <c r="AE2" t="n">
-        <v>2290260.035897635</v>
+        <v>2436342.077305234</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.04395840746627e-06</v>
+        <v>1.864955508648923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.91579861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2071680.832471713</v>
+        <v>2203821.008874803</v>
       </c>
     </row>
     <row r="3">
@@ -23536,28 +23536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1013.892644700293</v>
+        <v>1091.602758627512</v>
       </c>
       <c r="AB3" t="n">
-        <v>1387.252646265555</v>
+        <v>1493.579052469044</v>
       </c>
       <c r="AC3" t="n">
-        <v>1254.855200727288</v>
+        <v>1351.033963952763</v>
       </c>
       <c r="AD3" t="n">
-        <v>1013892.644700293</v>
+        <v>1091602.758627512</v>
       </c>
       <c r="AE3" t="n">
-        <v>1387252.646265555</v>
+        <v>1493579.052469044</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.381245017762842e-06</v>
+        <v>2.46749342334687e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.80946180555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1254855.200727288</v>
+        <v>1351033.963952763</v>
       </c>
     </row>
     <row r="4">
@@ -23642,28 +23642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>844.4549264997927</v>
+        <v>922.0796995724399</v>
       </c>
       <c r="AB4" t="n">
-        <v>1155.420485159068</v>
+        <v>1261.630124240358</v>
       </c>
       <c r="AC4" t="n">
-        <v>1045.148775698322</v>
+        <v>1141.221915891858</v>
       </c>
       <c r="AD4" t="n">
-        <v>844454.9264997927</v>
+        <v>922079.69957244</v>
       </c>
       <c r="AE4" t="n">
-        <v>1155420.485159068</v>
+        <v>1261630.124240358</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.497866491907749e-06</v>
+        <v>2.675829176072084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.57899305555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1045148.775698322</v>
+        <v>1141221.915891858</v>
       </c>
     </row>
     <row r="5">
@@ -23748,28 +23748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>814.6850021649313</v>
+        <v>882.5961005052275</v>
       </c>
       <c r="AB5" t="n">
-        <v>1114.687961327741</v>
+        <v>1207.606922103144</v>
       </c>
       <c r="AC5" t="n">
-        <v>1008.303706773</v>
+        <v>1092.354612344579</v>
       </c>
       <c r="AD5" t="n">
-        <v>814685.0021649314</v>
+        <v>882596.1005052275</v>
       </c>
       <c r="AE5" t="n">
-        <v>1114687.961327741</v>
+        <v>1207606.922103144</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.519600951282469e-06</v>
+        <v>2.714656201601546e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.37065972222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1008303.706773</v>
+        <v>1092354.612344579</v>
       </c>
     </row>
   </sheetData>
